--- a/biology/Botanique/Mathias_Leenders/Mathias_Leenders.xlsx
+++ b/biology/Botanique/Mathias_Leenders/Mathias_Leenders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathias Peter Hubert Leenders  né le 31 mai 1883 à Tegelen dans le Limbourg[1], à la frontière allemande, et mort au même endroit le 29 mars 1958, est un rosiériste néerlandais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathias Peter Hubert Leenders  né le 31 mai 1883 à Tegelen dans le Limbourg, à la frontière allemande, et mort au même endroit le 29 mars 1958, est un rosiériste néerlandais.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathias Leenders commence a faire de l'hybridation en 1904 à l'âge de 21 ans[2], après avoir été apprenti chez Peter Lambert à Trèves. Il ouvre sa propre pépinière en 1908 aidé de son père sous le nom de M. Leenders &amp; Co. Il se fait connaître par son obtention 'Jonkheer J. L. Mock' (1909), de couleur rose. Parmi ses grands succès, l'on peut citer le rosier floribunda 'Mevrouw Nathalie Nypels' (1919), grand succès international; 'Comtesse Vandal' (1930), hybride de thé de couleur rose cuivré; 'Étoile de Hollande Climbing' (1931), grand classique hybride de thé de couleur rouge[3] en version rosier-liane; 'Permanent Wave' (1932), floribunda rouge; 'Rosamunde' (1941) de couleur rose; 'Dorus Rijkers' (1942), rosier polyantha rose; 'Gruss an Aachen White (1942); 'Tawny Gold' (1951), hybride de thé de couleur jaune. Par contre d'autres variétés de Leenders ont été oubliées, comme 'Annette Gravereaux' (1929)[Note 1] ou 'Vanessa' (1946).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathias Leenders commence a faire de l'hybridation en 1904 à l'âge de 21 ans, après avoir été apprenti chez Peter Lambert à Trèves. Il ouvre sa propre pépinière en 1908 aidé de son père sous le nom de M. Leenders &amp; Co. Il se fait connaître par son obtention 'Jonkheer J. L. Mock' (1909), de couleur rose. Parmi ses grands succès, l'on peut citer le rosier floribunda 'Mevrouw Nathalie Nypels' (1919), grand succès international; 'Comtesse Vandal' (1930), hybride de thé de couleur rose cuivré; 'Étoile de Hollande Climbing' (1931), grand classique hybride de thé de couleur rouge en version rosier-liane; 'Permanent Wave' (1932), floribunda rouge; 'Rosamunde' (1941) de couleur rose; 'Dorus Rijkers' (1942), rosier polyantha rose; 'Gruss an Aachen White (1942); 'Tawny Gold' (1951), hybride de thé de couleur jaune. Par contre d'autres variétés de Leenders ont été oubliées, comme 'Annette Gravereaux' (1929)[Note 1] ou 'Vanessa' (1946).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			'Jonkheer J. L. Mock' (1909)
